--- a/AdvisorManagement/Upload/K25T-PM4.xlsx
+++ b/AdvisorManagement/Upload/K25T-PM4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3165FA6-0556-4811-8762-F5EB699ED8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5E929-82E2-41A7-95FA-C0FD98074896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF1E83C8-B32B-4F38-BD5E-64643D5E4CE4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>81, Thôn Dân Hiệp</t>
   </si>
@@ -125,61 +125,37 @@
     <t>197PM09441</t>
   </si>
   <si>
-    <t>197PM09442</t>
-  </si>
-  <si>
-    <t>197PM09443</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Hoài</t>
   </si>
   <si>
     <t>Huỳnh Thị Mỹ Yên</t>
   </si>
   <si>
-    <t>Triệu Quốc Đạt</t>
-  </si>
-  <si>
-    <t>Bùi Thị Bích Ngân</t>
-  </si>
-  <si>
     <t>0792666666</t>
   </si>
   <si>
     <t>0792777777</t>
   </si>
   <si>
-    <t>0792888888</t>
-  </si>
-  <si>
-    <t>0792999999</t>
-  </si>
-  <si>
     <t>hoai.197pm09440@vanlanguni.vn</t>
   </si>
   <si>
     <t>yen.197pm09441@vanlanguni.vn</t>
   </si>
   <si>
-    <t>dat.197pm09442@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>ngan.197pm09443@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>197PM09519</t>
-  </si>
-  <si>
-    <t>0792000000</t>
-  </si>
-  <si>
-    <t>tien.197pm09519@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Ngô Thanh Tiến</t>
-  </si>
-  <si>
     <t>K25T-PM4</t>
+  </si>
+  <si>
+    <t>197PM09438</t>
+  </si>
+  <si>
+    <t>Nguyễn Hạ</t>
+  </si>
+  <si>
+    <t>0792777778</t>
+  </si>
+  <si>
+    <t>ha.197pm09438@vanlanguni.vn</t>
   </si>
 </sst>
 </file>
@@ -598,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E285CB-ACC8-463D-A2B8-31DB1DDACF7C}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -730,10 +706,10 @@
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -744,7 +720,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -754,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -776,10 +752,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -790,23 +766,19 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
       <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,119 +792,18 @@
         <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" xr:uid="{6FC15FC5-F9F0-4199-AE2A-698D17BF7B6C}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{D3D8D406-DB71-4429-820D-1113F91D1262}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{CFFC9581-8151-444A-8AFB-6EC6D133CAED}"/>
-    <hyperlink ref="M5" r:id="rId4" display="ha.197pm09443@vanlanguni.vn" xr:uid="{4E0FAE3C-FABD-4D3F-9A55-ADD5541A227C}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{EA9D37F8-2B49-4AA1-B418-D90B229C50C8}"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{D3D8D406-DB71-4429-820D-1113F91D1262}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{CFFC9581-8151-444A-8AFB-6EC6D133CAED}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{40D8EF0F-5FE2-4A79-93FE-F527C55564A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AdvisorManagement/Upload/K25T-PM4.xlsx
+++ b/AdvisorManagement/Upload/K25T-PM4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5E929-82E2-41A7-95FA-C0FD98074896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0447434E-8708-4E95-B76B-A6C803E1B36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF1E83C8-B32B-4F38-BD5E-64643D5E4CE4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>81, Thôn Dân Hiệp</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Tên ngành</t>
   </si>
   <si>
-    <t>Lớp SV</t>
-  </si>
-  <si>
     <t>ĐT liên hệ</t>
   </si>
   <si>
@@ -119,43 +116,16 @@
     <t>Đang học</t>
   </si>
   <si>
-    <t>197PM09440</t>
-  </si>
-  <si>
-    <t>197PM09441</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Hoài</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Mỹ Yên</t>
-  </si>
-  <si>
-    <t>0792666666</t>
+    <t>Nguyễn Hạ</t>
+  </si>
+  <si>
+    <t>ha.197pm09438@vanlanguni.vn</t>
+  </si>
+  <si>
+    <t>197PM09438</t>
   </si>
   <si>
     <t>0792777777</t>
-  </si>
-  <si>
-    <t>hoai.197pm09440@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>yen.197pm09441@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>K25T-PM4</t>
-  </si>
-  <si>
-    <t>197PM09438</t>
-  </si>
-  <si>
-    <t>Nguyễn Hạ</t>
-  </si>
-  <si>
-    <t>0792777778</t>
-  </si>
-  <si>
-    <t>ha.197pm09438@vanlanguni.vn</t>
   </si>
 </sst>
 </file>
@@ -574,38 +544,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E285CB-ACC8-463D-A2B8-31DB1DDACF7C}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="4" width="0.21875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="0.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="12" max="12" width="11.77734375" customWidth="1"/>
     <col min="13" max="13" width="29.33203125" customWidth="1"/>
-    <col min="14" max="14" width="0.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0.33203125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0.44140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0.109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="1.109375" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" customWidth="1"/>
-    <col min="23" max="23" width="0.44140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="0.5546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="7.21875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,24 +647,17 @@
       <c r="W1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,107 +668,19 @@
         <v>2</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{D3D8D406-DB71-4429-820D-1113F91D1262}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{CFFC9581-8151-444A-8AFB-6EC6D133CAED}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{40D8EF0F-5FE2-4A79-93FE-F527C55564A0}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{40D8EF0F-5FE2-4A79-93FE-F527C55564A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
